--- a/Şema.xlsx
+++ b/Şema.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Method Adı</t>
   </si>
   <si>
-    <t>Grup bağlantısı</t>
-  </si>
-  <si>
     <t>Organization Bağlantısı</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>SuperAdmin</t>
   </si>
   <si>
-    <t>GroupID</t>
-  </si>
-  <si>
     <t>İşlemi Yapan Kullanıcı</t>
   </si>
   <si>
@@ -270,157 +261,210 @@
         <charset val="162"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Module</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Grant bağlantısı</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grant</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>License</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICollection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Organization</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICollection</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICollection</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>License</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICollection</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Module</t>
     </r>
     <r>
       <rPr>
@@ -440,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +533,15 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -888,7 +941,7 @@
   <dimension ref="B2:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +963,7 @@
   <sheetData>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -920,7 +973,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -934,76 +987,76 @@
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
@@ -1012,17 +1065,17 @@
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>4</v>
@@ -1040,39 +1093,39 @@
         <v>3</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1082,19 +1135,19 @@
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="F10" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
@@ -1104,13 +1157,13 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -1122,39 +1175,39 @@
         <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1167,13 +1220,13 @@
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
@@ -1188,18 +1241,9 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>5</v>
@@ -1209,109 +1253,116 @@
       </c>
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
+      <c r="B17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>53</v>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>9</v>
@@ -1321,21 +1372,19 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
       <c r="F22" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>3</v>
@@ -1344,165 +1393,165 @@
         <v>12</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Şema.xlsx
+++ b/Şema.xlsx
@@ -9,10 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="License" sheetId="4" r:id="rId1"/>
+    <sheet name="Module" sheetId="8" r:id="rId2"/>
+    <sheet name="Organization" sheetId="1" r:id="rId3"/>
+    <sheet name="User" sheetId="2" r:id="rId4"/>
+    <sheet name="Title" sheetId="7" r:id="rId5"/>
+    <sheet name="Group" sheetId="6" r:id="rId6"/>
+    <sheet name="Grant" sheetId="3" r:id="rId7"/>
+    <sheet name="Department" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -77,9 +84,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -179,9 +183,6 @@
     <t>Variable Types</t>
   </si>
   <si>
-    <t>OrganizationID</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -212,16 +213,10 @@
     <t>İşlemi Yapan Kullanıcı</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
     <t>ExpireDate</t>
-  </si>
-  <si>
-    <t>Açıklamaa</t>
   </si>
   <si>
     <t>Üst Organizasyon</t>
@@ -277,9 +272,6 @@
     </r>
   </si>
   <si>
-    <t>Grant bağlantısı</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -478,6 +470,58 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Departman Yetkilisi</t>
+  </si>
+  <si>
+    <t>Organizasyon</t>
+  </si>
+  <si>
+    <t>Yetkiler</t>
+  </si>
+  <si>
+    <t>ŞUBE</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>ContactEmail</t>
+  </si>
+  <si>
+    <t>ContactPhone</t>
+  </si>
+  <si>
+    <t>İletişim Kurulacak Kişi</t>
+  </si>
+  <si>
+    <t>İletişim Maili</t>
+  </si>
+  <si>
+    <t>İletişim Numarası</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>İletişim
+Bilgileri</t>
+  </si>
+  <si>
+    <t>Adres</t>
+  </si>
+  <si>
+    <t>Dil</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
@@ -613,13 +657,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,6 +701,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,18 +989,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB36"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -962,253 +1185,164 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2" s="21"/>
       <c r="L2" s="3"/>
       <c r="N2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="11"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="E9" s="23"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>31</v>
+      <c r="B10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
+      <c r="B11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="24"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1219,18 +1353,18 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="B14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1241,321 +1375,563 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-      <c r="F15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="17" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
-      <c r="F17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="18" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="4"/>
-      <c r="F18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="19" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
-      <c r="F19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="20" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
-      <c r="F21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Şema.xlsx
+++ b/Şema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6135" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Soyad</t>
   </si>
   <si>
-    <t>Lakap</t>
-  </si>
-  <si>
     <t>Kullanıcı Adı</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
   </si>
   <si>
     <t>Lastname</t>
-  </si>
-  <si>
-    <t>Nickname</t>
   </si>
   <si>
     <t>Username</t>
@@ -522,6 +516,12 @@
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -702,10 +702,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,7 +1004,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -1021,23 +1021,23 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>5</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>28</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
@@ -1076,7 +1076,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1100,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1117,29 +1117,29 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1186,7 @@
   <sheetData>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1207,33 +1207,39 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="21"/>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="21"/>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -1243,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -1262,12 +1268,12 @@
       <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3</v>
@@ -1275,12 +1281,12 @@
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>4</v>
@@ -1288,61 +1294,73 @@
       <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>81</v>
+      <c r="F10" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="24"/>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="24"/>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="24"/>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1354,16 +1372,18 @@
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="2"/>
       <c r="G14" s="10"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1379,12 +1399,15 @@
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="21"/>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
@@ -1436,20 +1459,20 @@
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -1466,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,10 +1505,10 @@
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>34</v>
@@ -1493,10 +1516,10 @@
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -1504,32 +1527,32 @@
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>53</v>
+      <c r="B8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>54</v>
+      <c r="B9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>38</v>
@@ -1537,10 +1560,10 @@
     </row>
     <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>39</v>
@@ -1548,10 +1571,10 @@
     </row>
     <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>40</v>
@@ -1559,10 +1582,10 @@
     </row>
     <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>41</v>
@@ -1570,10 +1593,10 @@
     </row>
     <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>42</v>
@@ -1581,26 +1604,16 @@
     </row>
     <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1632,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1644,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -1648,18 +1661,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1670,7 +1683,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1682,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1708,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -1712,29 +1725,29 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1745,23 +1758,23 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3</v>
@@ -1792,7 +1805,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -1809,12 +1822,12 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>24</v>
@@ -1825,7 +1838,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
@@ -1856,7 +1869,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -1873,29 +1886,29 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1906,7 +1919,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1914,15 +1927,15 @@
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3</v>
